--- a/output_by_subject/CE549.xlsx
+++ b/output_by_subject/CE549.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,6 +1499,94 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2121CE01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CE549</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1801CE31</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CE549</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1801CE32</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CE549</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1801CE06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CE549</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Department Elective - I</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
